--- a/forecast_summary_B0CTNPZLNH.xlsx
+++ b/forecast_summary_B0CTNPZLNH.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="n">
         <v>65.83336983275107</v>
       </c>
       <c r="D2" t="n">
-        <v>102.8863718738992</v>
+        <v>101.4384949508455</v>
       </c>
       <c r="E2" t="n">
         <v>136</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
         <v>39.51444486420961</v>
       </c>
       <c r="D3" t="n">
-        <v>75.39464641401375</v>
+        <v>77.21411619585186</v>
       </c>
       <c r="E3" t="n">
         <v>60</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
         <v>34.5836937417662</v>
       </c>
       <c r="D4" t="n">
-        <v>69.36865323960606</v>
+        <v>69.58341051826487</v>
       </c>
       <c r="E4" t="n">
         <v>64</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>63.36989205749452</v>
       </c>
       <c r="D5" t="n">
-        <v>98.36799783743999</v>
+        <v>96.44044850659255</v>
       </c>
       <c r="E5" t="n">
         <v>52</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" t="n">
         <v>104.4902358387614</v>
       </c>
       <c r="D6" t="n">
-        <v>138.839153040722</v>
+        <v>139.6709134511302</v>
       </c>
       <c r="E6" t="n">
         <v>53</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>121.2974676254563</v>
       </c>
       <c r="D7" t="n">
-        <v>157.5189900987926</v>
+        <v>158.3657350269897</v>
       </c>
       <c r="E7" t="n">
         <v>56</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" t="n">
         <v>96.34921903943261</v>
       </c>
       <c r="D8" t="n">
-        <v>131.363135616846</v>
+        <v>132.1426524594202</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>47.63506197880153</v>
       </c>
       <c r="D9" t="n">
-        <v>82.92901349632022</v>
+        <v>84.47430368462865</v>
       </c>
       <c r="E9" t="n">
         <v>54</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>10.24578405367574</v>
       </c>
       <c r="D10" t="n">
-        <v>45.58369078535383</v>
+        <v>46.33556500662279</v>
       </c>
       <c r="E10" t="n">
         <v>58</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
         <v>2.785458019968098</v>
       </c>
       <c r="D11" t="n">
-        <v>37.69826319102192</v>
+        <v>41.27933149188724</v>
       </c>
       <c r="E11" t="n">
         <v>70</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>13.46777683231723</v>
       </c>
       <c r="D12" t="n">
-        <v>48.23518694198178</v>
+        <v>49.71759792647224</v>
       </c>
       <c r="E12" t="n">
         <v>71</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
         <v>18.93261084288003</v>
       </c>
       <c r="D13" t="n">
-        <v>53.32226568606789</v>
+        <v>55.8052833015058</v>
       </c>
       <c r="E13" t="n">
         <v>71</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
         <v>12.84223708872603</v>
       </c>
       <c r="D14" t="n">
-        <v>50.99983059637916</v>
+        <v>45.26418472039986</v>
       </c>
       <c r="E14" t="n">
         <v>71</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
         <v>11.3812808555511</v>
       </c>
       <c r="D15" t="n">
-        <v>45.73893790208172</v>
+        <v>50.15212276866399</v>
       </c>
       <c r="E15" t="n">
         <v>70</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
         <v>30.43510584882866</v>
       </c>
       <c r="D16" t="n">
-        <v>66.53876928586072</v>
+        <v>65.56743406477598</v>
       </c>
       <c r="E16" t="n">
         <v>72</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="n">
         <v>62.83376373575479</v>
       </c>
       <c r="D17" t="n">
-        <v>101.3781610085814</v>
+        <v>97.61255804863788</v>
       </c>
       <c r="E17" t="n">
         <v>69</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" t="n">
         <v>84.13666823066714</v>
       </c>
       <c r="D18" t="n">
-        <v>119.6571378159359</v>
+        <v>120.2812271509826</v>
       </c>
       <c r="E18" t="n">
         <v>68</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>81.07666817325308</v>
       </c>
       <c r="D19" t="n">
-        <v>116.5484107648328</v>
+        <v>116.1925184441291</v>
       </c>
       <c r="E19" t="n">
         <v>65</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" t="n">
         <v>68.35516284430128</v>
       </c>
       <c r="D20" t="n">
-        <v>103.5965317953902</v>
+        <v>106.0873627970793</v>
       </c>
       <c r="E20" t="n">
         <v>74</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>71.90152683590019</v>
       </c>
       <c r="D21" t="n">
-        <v>109.0479258363978</v>
+        <v>109.4896819969514</v>
       </c>
       <c r="E21" t="n">
         <v>67</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 Eagle AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>968</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>689</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>261</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
